--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,51 +540,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H2">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I2">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J2">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.752090333333333</v>
+        <v>1.806704333333333</v>
       </c>
       <c r="N2">
-        <v>5.256271</v>
+        <v>5.420113000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9475373327607437</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9644023730209256</v>
       </c>
       <c r="Q2">
-        <v>72.74610031640866</v>
+        <v>53.15316921849335</v>
       </c>
       <c r="R2">
-        <v>654.7149028476779</v>
+        <v>478.3785229664401</v>
       </c>
       <c r="S2">
-        <v>0.7305114279806179</v>
+        <v>0.5881553684161618</v>
       </c>
       <c r="T2">
-        <v>0.7630546295388221</v>
+        <v>0.6445052241074175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.183879666666667</v>
+        <v>29.41996</v>
       </c>
       <c r="H3">
-        <v>21.551639</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I3">
-        <v>0.1263958572665066</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J3">
-        <v>0.1320266053993819</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>1.752090333333333</v>
+        <v>0.1000325</v>
       </c>
       <c r="N3">
-        <v>5.256271</v>
+        <v>0.200065</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.05246266723925631</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.03559762697907432</v>
       </c>
       <c r="Q3">
-        <v>12.58680611979656</v>
+        <v>2.9429521487</v>
       </c>
       <c r="R3">
-        <v>113.281255078169</v>
+        <v>17.6577128922</v>
       </c>
       <c r="S3">
-        <v>0.1263958572665066</v>
+        <v>0.03256462654436709</v>
       </c>
       <c r="T3">
-        <v>0.1320266053993819</v>
+        <v>0.0237897139157524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.229894</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H4">
-        <v>0.6896819999999999</v>
+        <v>21.551639</v>
       </c>
       <c r="I4">
-        <v>0.004044840748830231</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J4">
-        <v>0.004225032410066655</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.752090333333333</v>
+        <v>1.806704333333333</v>
       </c>
       <c r="N4">
-        <v>5.256271</v>
+        <v>5.420113000000001</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9475373327607437</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9644023730209256</v>
       </c>
       <c r="Q4">
-        <v>0.4027950550913332</v>
+        <v>12.97914652391189</v>
       </c>
       <c r="R4">
-        <v>3.625155495821999</v>
+        <v>116.812318715207</v>
       </c>
       <c r="S4">
-        <v>0.004044840748830231</v>
+        <v>0.1436180535937406</v>
       </c>
       <c r="T4">
-        <v>0.004225032410066655</v>
+        <v>0.1573777793894254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.2719705</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H5">
-        <v>14.543941</v>
+        <v>21.551639</v>
       </c>
       <c r="I5">
-        <v>0.1279457602316344</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J5">
-        <v>0.08909703616318426</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.752090333333333</v>
+        <v>0.1000325</v>
       </c>
       <c r="N5">
-        <v>5.256271</v>
+        <v>0.200065</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.05246266723925631</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.03559762697907432</v>
       </c>
       <c r="Q5">
-        <v>12.74114921733517</v>
+        <v>0.7186214427558333</v>
       </c>
       <c r="R5">
-        <v>76.44689530401099</v>
+        <v>4.311728656535</v>
       </c>
       <c r="S5">
-        <v>0.1279457602316344</v>
+        <v>0.007951756511044619</v>
       </c>
       <c r="T5">
-        <v>0.08909703616318426</v>
+        <v>0.005809064392854059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,46 +788,356 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6310036666666666</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H6">
-        <v>1.893011</v>
+        <v>1.161929</v>
       </c>
       <c r="I6">
-        <v>0.01110211377241086</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J6">
-        <v>0.011596696488545</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.806704333333333</v>
+      </c>
+      <c r="N6">
+        <v>5.420113000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.9475373327607437</v>
+      </c>
+      <c r="P6">
+        <v>0.9644023730209256</v>
+      </c>
+      <c r="Q6">
+        <v>0.6997540531085557</v>
+      </c>
+      <c r="R6">
+        <v>6.297786477977001</v>
+      </c>
+      <c r="S6">
+        <v>0.007742983324568561</v>
+      </c>
+      <c r="T6">
+        <v>0.008484821308865449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.3873096666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.161929</v>
+      </c>
+      <c r="I7">
+        <v>0.008171692087327698</v>
+      </c>
+      <c r="J7">
+        <v>0.008798009571759262</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.1000325</v>
+      </c>
+      <c r="N7">
+        <v>0.200065</v>
+      </c>
+      <c r="O7">
+        <v>0.05246266723925631</v>
+      </c>
+      <c r="P7">
+        <v>0.03559762697907432</v>
+      </c>
+      <c r="Q7">
+        <v>0.03874355423083333</v>
+      </c>
+      <c r="R7">
+        <v>0.232461325385</v>
+      </c>
+      <c r="S7">
+        <v>0.0004287087627591369</v>
+      </c>
+      <c r="T7">
+        <v>0.0003131882628938116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>1.752090333333333</v>
-      </c>
-      <c r="N6">
-        <v>5.256271</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1.105575424664555</v>
-      </c>
-      <c r="R6">
-        <v>9.950178821981</v>
-      </c>
-      <c r="S6">
-        <v>0.01110211377241086</v>
-      </c>
-      <c r="T6">
-        <v>0.011596696488545</v>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10.122265</v>
+      </c>
+      <c r="H8">
+        <v>20.24453</v>
+      </c>
+      <c r="I8">
+        <v>0.2135656295858028</v>
+      </c>
+      <c r="J8">
+        <v>0.153289545846405</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.806704333333333</v>
+      </c>
+      <c r="N8">
+        <v>5.420113000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.9475373327607437</v>
+      </c>
+      <c r="P8">
+        <v>0.9644023730209256</v>
+      </c>
+      <c r="Q8">
+        <v>18.28794003864833</v>
+      </c>
+      <c r="R8">
+        <v>109.72764023189</v>
+      </c>
+      <c r="S8">
+        <v>0.2023614070271006</v>
+      </c>
+      <c r="T8">
+        <v>0.1478328017735729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.122265</v>
+      </c>
+      <c r="H9">
+        <v>20.24453</v>
+      </c>
+      <c r="I9">
+        <v>0.2135656295858028</v>
+      </c>
+      <c r="J9">
+        <v>0.153289545846405</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.1000325</v>
+      </c>
+      <c r="N9">
+        <v>0.200065</v>
+      </c>
+      <c r="O9">
+        <v>0.05246266723925631</v>
+      </c>
+      <c r="P9">
+        <v>0.03559762697907432</v>
+      </c>
+      <c r="Q9">
+        <v>1.0125554736125</v>
+      </c>
+      <c r="R9">
+        <v>4.050221894449999</v>
+      </c>
+      <c r="S9">
+        <v>0.01120422255870225</v>
+      </c>
+      <c r="T9">
+        <v>0.005456744072832037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.2830933333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.84928</v>
+      </c>
+      <c r="I10">
+        <v>0.005972873261555284</v>
+      </c>
+      <c r="J10">
+        <v>0.006430662776386256</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.806704333333333</v>
+      </c>
+      <c r="N10">
+        <v>5.420113000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.9475373327607437</v>
+      </c>
+      <c r="P10">
+        <v>0.9644023730209256</v>
+      </c>
+      <c r="Q10">
+        <v>0.5114659520711112</v>
+      </c>
+      <c r="R10">
+        <v>4.603193568640001</v>
+      </c>
+      <c r="S10">
+        <v>0.005659520399172057</v>
+      </c>
+      <c r="T10">
+        <v>0.006201746441644239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2830933333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.84928</v>
+      </c>
+      <c r="I11">
+        <v>0.005972873261555284</v>
+      </c>
+      <c r="J11">
+        <v>0.006430662776386256</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.1000325</v>
+      </c>
+      <c r="N11">
+        <v>0.200065</v>
+      </c>
+      <c r="O11">
+        <v>0.05246266723925631</v>
+      </c>
+      <c r="P11">
+        <v>0.03559762697907432</v>
+      </c>
+      <c r="Q11">
+        <v>0.02831853386666667</v>
+      </c>
+      <c r="R11">
+        <v>0.1699112032</v>
+      </c>
+      <c r="S11">
+        <v>0.0003133528623832264</v>
+      </c>
+      <c r="T11">
+        <v>0.0002289163347420164</v>
       </c>
     </row>
   </sheetData>
